--- a/Main_Assignment/MovieData.xlsx
+++ b/Main_Assignment/MovieData.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -390,47 +390,114 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <cols>
+    <col width="11.90625" customWidth="1" min="6" max="6"/>
+    <col width="11.1796875" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>RRR</t>
+          <t>title</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>genre</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>cast</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>capacity</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>admin rating</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>user rating</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gangu</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>romance</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>alia</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>attack</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>NTR</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>john</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>